--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoSoQuyNganHang.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoSoQuyNganHang.xlsx
@@ -12,176 +12,16 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <r>
-      <t xml:space="preserve">Mã phiếu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thời gian
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Khoản mục
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Người nộp/nhận
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tiền thu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tiền chi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tồn lũy kế
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(7)</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>BÁO CÁO SỔ QUỸ NGÂN HÀNG</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Số tài khoản
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(8)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngân hàng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(9)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ghi chú
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(10)</t>
-    </r>
-  </si>
-  <si>
     <t>Tồn đầu kỳ:</t>
   </si>
   <si>
@@ -195,13 +35,46 @@
   </si>
   <si>
     <t>Tồn cuối kỳ:</t>
+  </si>
+  <si>
+    <t>Chi nhánh</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Ngân hàng</t>
+  </si>
+  <si>
+    <t>Số tài khoản</t>
+  </si>
+  <si>
+    <t>Tồn lũy kế</t>
+  </si>
+  <si>
+    <t>Tiền chi</t>
+  </si>
+  <si>
+    <t>Tiền thu</t>
+  </si>
+  <si>
+    <t>Người nộp/nhận</t>
+  </si>
+  <si>
+    <t>Khoản mục</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Mã phiếu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +113,21 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -291,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -312,9 +200,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,13 +227,44 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -666,423 +582,454 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="16" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
     <col min="5" max="7" width="14.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="26.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="I3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="17">
-        <f>SUM(E$5:E28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="17">
-        <f>SUM(F$5:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="17">
-        <f>J30-J31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="17">
-        <f>$J$3+J33</f>
-        <v>0</v>
-      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="23"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="24"/>
+      <c r="J30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I31" s="24"/>
+      <c r="J31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I32" s="24"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="24"/>
+      <c r="J33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="24"/>
+      <c r="J34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
